--- a/mpm/ps9/eric/figures/p2v.xlsx
+++ b/mpm/ps9/eric/figures/p2v.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
   <si>
     <t>coeff</t>
   </si>
@@ -39,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -48,13 +54,15 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -73,10 +81,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -84,7 +92,7 @@
         <v>0.11265448559750754</v>
       </c>
       <c r="B2" s="0">
-        <v>0.030980116736174391</v>
+        <v>0.030207940385835484</v>
       </c>
     </row>
     <row r="3">
@@ -92,7 +100,7 @@
         <v>-0.14291983490372961</v>
       </c>
       <c r="B3" s="0">
-        <v>0.033435753351339879</v>
+        <v>0.033095190150339494</v>
       </c>
     </row>
     <row r="4">
@@ -100,7 +108,7 @@
         <v>0.01718810490731678</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0084953052879281881</v>
+        <v>0.008881352300688948</v>
       </c>
     </row>
     <row r="5">
@@ -108,7 +116,7 @@
         <v>-0.017975137915693769</v>
       </c>
       <c r="B5" s="0">
-        <v>0.0057581486494110538</v>
+        <v>0.005619540005497011</v>
       </c>
     </row>
     <row r="6">
@@ -116,7 +124,7 @@
         <v>0.031052382314599111</v>
       </c>
       <c r="B6" s="0">
-        <v>0.010334605735174363</v>
+        <v>0.010274173653955542</v>
       </c>
     </row>
   </sheetData>

--- a/mpm/ps9/eric/figures/p2v.xlsx
+++ b/mpm/ps9/eric/figures/p2v.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>coeff</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
   <si>
     <t>coeff</t>
   </si>
@@ -45,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -55,14 +67,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -81,50 +97,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.11265448559750754</v>
+        <v>0.11265367326080193</v>
       </c>
       <c r="B2" s="0">
-        <v>0.030207940385835484</v>
+        <v>0.030731318702911375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.14291983490372961</v>
+        <v>-0.14291863291481788</v>
       </c>
       <c r="B3" s="0">
-        <v>0.033095190150339494</v>
+        <v>0.033810956739835391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.01718810490731678</v>
+        <v>0.017187885339414306</v>
       </c>
       <c r="B4" s="0">
-        <v>0.008881352300688948</v>
+        <v>0.0088102521833242249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.017975137915693769</v>
+        <v>-0.017974967890548681</v>
       </c>
       <c r="B5" s="0">
-        <v>0.005619540005497011</v>
+        <v>0.0055441008502589359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.031052382314599111</v>
+        <v>0.031052042205150315</v>
       </c>
       <c r="B6" s="0">
-        <v>0.010274173653955542</v>
+        <v>0.01026540681530262</v>
       </c>
     </row>
   </sheetData>
